--- a/epigraphhub/data/brasil/sinan/metadata/FMAC.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/FMAC.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="356">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -46,8 +46,7 @@
     <t xml:space="preserve">DBF</t>
   </si>
   <si>
-    <t xml:space="preserve">31. Data da Investigação
-(Vig. Epidemiológica)</t>
+    <t xml:space="preserve">31. Data da Investigação (Vig. Epidemiológica)</t>
   </si>
   <si>
     <t xml:space="preserve">dt_investigacao</t>
@@ -91,8 +90,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32. Ocupação/Ramo de
-atividade Econômica</t>
+    <t xml:space="preserve">32. Ocupação/Ramo de atividade Econômica</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -101,31 +99,14 @@
     <t xml:space="preserve">varchar2(6)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar a atividade
+    <t xml:space="preserve">Informar a atividade
 exercida pelo paciente
 no setor formal, informal
 ou autônomo ou sua
 última atividade
 exercida quando
 paciente for
-desempregado. O ramo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">de atividade econômica
+desempregado. O ramo de atividade econômica
 do paciente refere-se as
 atividades econômicas
 desenvolvidas nos
@@ -136,7 +117,6 @@
 secundário (indústria)
 ou terciário (serviços e
 Comércio).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Campo Essencial</t>
@@ -145,8 +125,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Febre</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Febre</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_febre</t>
@@ -171,8 +150,7 @@
     <t xml:space="preserve">FEBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Cefaféia</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Cefaféia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_cefaleia</t>
@@ -186,8 +164,7 @@
     <t xml:space="preserve">CEFALEIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Dor Abdominal</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Dor Abdominal</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_abdominal</t>
@@ -201,8 +178,7 @@
     <t xml:space="preserve">ABDOMINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Mialgia</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Mialgia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_mialgia</t>
@@ -216,8 +192,7 @@
     <t xml:space="preserve">MIALGIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e sintomas
-Náusea/vômito</t>
+    <t xml:space="preserve">33. Sinais e sintomas Náusea/vômito</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_nausea</t>
@@ -231,8 +206,7 @@
     <t xml:space="preserve">NAUSEA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Exantema</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Exantema</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_exantema</t>
@@ -246,8 +220,7 @@
     <t xml:space="preserve">EXANTEMA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Diarréia</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Diarréia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_diarreia</t>
@@ -261,8 +234,7 @@
     <t xml:space="preserve">DIARREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Icterícia</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Icterícia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_ictericia</t>
@@ -276,8 +248,7 @@
     <t xml:space="preserve">ICTERICIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Hiperemia Conjuntival</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Hiperemia Conjuntival</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_hiperemia</t>
@@ -291,84 +262,21 @@
     <t xml:space="preserve">HIPEREMIA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">33. Sinais e Sintomas
-Hepatomegalia/Esplenomeg</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">alia</t>
-    </r>
+    <t xml:space="preserve">33. Sinais e Sintomas Hepatomegalia/Esplenomegalia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_hepatomealgia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1- Sim
-2- Não
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">9- Ignorado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar se o paciente
-teve sinais/sintomas de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Hepatomegalia/Espleno
+    <t xml:space="preserve">Informar se o paciente
+teve sinais/sintomas de Hepatomegalia/Espleno
 megalia</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">HEPATOME</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Petéquias</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Petéquias</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_petequias</t>
@@ -382,9 +290,7 @@
     <t xml:space="preserve">PETEQUIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Manifestações
-Hemorrágicas</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Manifestações Hemorrágicas</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_hemorragicas</t>
@@ -399,8 +305,7 @@
     <t xml:space="preserve">HEMORRAG</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e sintomas
-Linfadenopatia</t>
+    <t xml:space="preserve">33. Sinais e sintomas Linfadenopatia</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_linfadenopatia</t>
@@ -414,8 +319,7 @@
     <t xml:space="preserve">LINFADENO</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Convulsão</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Convulsão</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_convulsao</t>
@@ -429,8 +333,7 @@
     <t xml:space="preserve">CONVULSAO</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Necrose de extremidades</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Necrose de extremidades</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_necrose</t>
@@ -445,8 +348,7 @@
     <t xml:space="preserve">NECROSE</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Prostração</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Prostração</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_prostacao</t>
@@ -460,8 +362,7 @@
     <t xml:space="preserve">PROSTACAO</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Choque/Hipotensão</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Choque/Hipotensão</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_choque</t>
@@ -475,8 +376,7 @@
     <t xml:space="preserve">CHOQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Estupor/Coma</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Estupor/Coma</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_estupor</t>
@@ -490,8 +390,7 @@
     <t xml:space="preserve">COMA</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Sufusão hemorrágica</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Sufusão hemorrágica</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_sufusao</t>
@@ -505,8 +404,7 @@
     <t xml:space="preserve">HEMORRAGI</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Alterações Respiratórias</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Alterações Respiratórias</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_respiratorias</t>
@@ -523,8 +421,7 @@
     <t xml:space="preserve">RESPIRATO</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Oligúria/Anúria</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Oligúria/Anúria</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_oliguria</t>
@@ -538,8 +435,7 @@
     <t xml:space="preserve">OLIGURIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33 Sinais e Sintomas
-Outros</t>
+    <t xml:space="preserve">33 Sinais e Sintomas Outros</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_outro</t>
@@ -553,15 +449,13 @@
     <t xml:space="preserve">OUTROS</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Sinais e Sintomas
-Outros Especificar</t>
+    <t xml:space="preserve">33. Sinais e Sintomas Outros Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_sinais_outro</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar2(30)
-ds_sinais_outro</t>
+    <t xml:space="preserve">varchar2(30)</t>
   </si>
   <si>
     <t xml:space="preserve">Especificar outros
@@ -606,9 +500,7 @@
     <t xml:space="preserve">OUTRO_ESP</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Carrapato</t>
+    <t xml:space="preserve">34. Teve contato com animais? Carrapato</t>
   </si>
   <si>
     <t xml:space="preserve">st_contato_animal_carrapato</t>
@@ -622,9 +514,7 @@
     <t xml:space="preserve">CARRAPATO</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Capivara</t>
+    <t xml:space="preserve">34. Teve contato com animais? Capivara</t>
   </si>
   <si>
     <t xml:space="preserve">st_contato_animal_capivara</t>
@@ -638,9 +528,7 @@
     <t xml:space="preserve">CAPIVARA</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Cão/Gato</t>
+    <t xml:space="preserve">34. Teve contato com animais? Cão/Gato</t>
   </si>
   <si>
     <t xml:space="preserve">st_cotnato_animal_caogato</t>
@@ -654,9 +542,7 @@
     <t xml:space="preserve">CAO_GATO</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Bovinos</t>
+    <t xml:space="preserve">34. Teve contato com animais? Bovinos</t>
   </si>
   <si>
     <t xml:space="preserve">st_contato_animal_bovino</t>
@@ -670,9 +556,7 @@
     <t xml:space="preserve">BOVINO</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Eqüinos</t>
+    <t xml:space="preserve">34. Teve contato com animais? Eqüinos</t>
   </si>
   <si>
     <t xml:space="preserve">st_contato_animal_equino</t>
@@ -686,9 +570,7 @@
     <t xml:space="preserve">EQUINOS</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Outros</t>
+    <t xml:space="preserve">34. Teve contato com animais? Outros</t>
   </si>
   <si>
     <t xml:space="preserve">st_contato_animal_outro</t>
@@ -702,15 +584,10 @@
     <t xml:space="preserve">OUTROANI</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Teve contato com
-animais?
-Outros (especificar)</t>
+    <t xml:space="preserve">34. Teve contato com animais? Outros (especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_contato_animal_outro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar2(30)</t>
   </si>
   <si>
     <t xml:space="preserve">Especificar qual outro
@@ -720,18 +597,13 @@
     <t xml:space="preserve">ANIM_ESP</t>
   </si>
   <si>
-    <t xml:space="preserve">35. Freqüentou ambientes
-com vegetação(mata,
-floresta, rios,
-cachoeiras, etc)</t>
+    <t xml:space="preserve">35. Freqüentou ambientes com vegetação(mata, floresta, rios, cachoeiras, etc)</t>
   </si>
   <si>
     <t xml:space="preserve">st_frenquentou_ambiente</t>
   </si>
   <si>
-    <t xml:space="preserve">varchar2(1)
-st_frenquentou_
-ambiente</t>
+    <t xml:space="preserve">Varchar2(1)</t>
   </si>
   <si>
     <t xml:space="preserve">Informar se o paciente
@@ -963,8 +835,7 @@
     <t xml:space="preserve">COUNIHOSP</t>
   </si>
   <si>
-    <t xml:space="preserve">42. Diagnóstico
-Laboratorial</t>
+    <t xml:space="preserve">42. Diagnóstico Laboratorial</t>
   </si>
   <si>
     <t xml:space="preserve">st_diagnostico_laboratorial</t>
@@ -1059,8 +930,7 @@
     <t xml:space="preserve">DTS2</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-S1 IgM</t>
+    <t xml:space="preserve">43. Resultados sorologia S1 IgM</t>
   </si>
   <si>
     <t xml:space="preserve">tp_sorologia_igms1</t>
@@ -1104,8 +974,7 @@
     <t xml:space="preserve">IGM_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-S1 IGM títulos</t>
+    <t xml:space="preserve">43. Resultados sorologia S1 IGM títulos</t>
   </si>
   <si>
     <t xml:space="preserve">nu_sorologia_igm_titulos1</t>
@@ -1148,8 +1017,7 @@
     <t xml:space="preserve">TIT_IGM_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-S1 IgG</t>
+    <t xml:space="preserve">43. Resultados sorologia S1 IgG</t>
   </si>
   <si>
     <t xml:space="preserve">tp_sorologia_iggs1</t>
@@ -1162,8 +1030,7 @@
     <t xml:space="preserve">IGG_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-S1 IgG títulos</t>
+    <t xml:space="preserve">43. Resultados sorologia S1 IgG títulos</t>
   </si>
   <si>
     <t xml:space="preserve">nu_sorologia_igg_titulos1</t>
@@ -1216,8 +1083,7 @@
     <t xml:space="preserve">TIT_IGG_S1</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-S2 IgM</t>
+    <t xml:space="preserve">43. Resultados sorologia S2 IgM</t>
   </si>
   <si>
     <t xml:space="preserve">tp_sorologia_igm2</t>
@@ -1255,9 +1121,7 @@
     <t xml:space="preserve">IGM_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-IgM
-S2 títulos</t>
+    <t xml:space="preserve">43. Resultados sorologia IgM S2 títulos</t>
   </si>
   <si>
     <t xml:space="preserve">nu_sorologia_igm_titulos2</t>
@@ -1307,8 +1171,7 @@
     <t xml:space="preserve">TIT_IGM_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Resultados sorologia
-S2 IgG</t>
+    <t xml:space="preserve">43. Resultados sorologia S2 IgG</t>
   </si>
   <si>
     <t xml:space="preserve">tp_sorologia_iggs2</t>
@@ -1321,9 +1184,7 @@
     <t xml:space="preserve">IGG_S2</t>
   </si>
   <si>
-    <t xml:space="preserve">43.Resultados sorologia
-IGG
-S2 títulos</t>
+    <t xml:space="preserve">43.Resultados sorologia IGG S2 títulos</t>
   </si>
   <si>
     <t xml:space="preserve">nu_sorologia_igg_titulos2</t>
@@ -1487,8 +1348,7 @@
     <t xml:space="preserve">AGENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Resultado
-Histopatologia</t>
+    <t xml:space="preserve">47. Resultado Histopatologia</t>
   </si>
   <si>
     <t xml:space="preserve">tp_histopatologia</t>
@@ -1526,8 +1386,7 @@
     <t xml:space="preserve">HISTOPATO</t>
   </si>
   <si>
-    <t xml:space="preserve">48. Resultado
-Imunohistoquímica</t>
+    <t xml:space="preserve">48. Resultado Imunohistoquímica</t>
   </si>
   <si>
     <t xml:space="preserve">tp_outro_exame_imunohisto</t>
@@ -1608,8 +1467,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">50. Critério
-Confirmação/Descarte</t>
+    <t xml:space="preserve">50. Critério Confirmação/Descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_confirmacaodescarte</t>
@@ -1651,9 +1509,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Se descartado,
-Especificar
-diagnóstico</t>
+    <t xml:space="preserve">51. Se descartado, Especificar diagnóstico</t>
   </si>
   <si>
     <t xml:space="preserve">ds_diagnostico_outro</t>
@@ -1714,8 +1570,7 @@
     <t xml:space="preserve">DIAG_DESCA</t>
   </si>
   <si>
-    <t xml:space="preserve">52. O caso é Autóctone de
-residência?</t>
+    <t xml:space="preserve">52. O caso é Autóctone de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -1757,16 +1612,7 @@
 com 1 (sim), o sistema
 preenche automaticamente
 os campos de autoctonia
-(UF, País e Município </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">provável da fonte de
+(UF, País e Município provável da fonte de
 infecção) com os valores
 registrados nos campos da
 notificação e habilita para o
@@ -1802,6 +1648,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -1812,6 +1659,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação final
 for preenchida com
@@ -1825,58 +1673,21 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">53. UF (provável da fonte
-de infecção)</t>
+    <t xml:space="preserve">53. UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tabela com siglas
-e código </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">padronizados pelo
+    <t xml:space="preserve">Tabela com siglas
+e código padronizados pelo
 IBGE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sigla da unidade
-federada onde o </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">paciente foi
+  </si>
+  <si>
+    <t xml:space="preserve">Sigla da unidade
+federada onde o paciente foi
 provavelmente
 Infectado.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1899,16 +1710,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">se
-país de infecção= Brasil e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">se campo classificação
+país de infecção= Brasil e se campo classificação
 final=1(confirmado).
 Se o campo (O caso é
 autóctone do município de
@@ -1928,6 +1730,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -1938,6 +1741,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação final
 for preenchida com
@@ -1951,8 +1755,7 @@
     <t xml:space="preserve">COUFINF</t>
   </si>
   <si>
-    <t xml:space="preserve">54. País (provável da fonte
-de infecção)</t>
+    <t xml:space="preserve">54. País (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_infeccao</t>
@@ -2025,16 +1828,7 @@
       <t xml:space="preserve">Quando a classificação final
 for preenchida com
 2(descartado) os dados
-desse campo são </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">automaticamente
+desse campo são automaticamente
 Apagados.</t>
     </r>
   </si>
@@ -2042,8 +1836,7 @@
     <t xml:space="preserve">COPAISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">55. Município (provável da
-fonte de infecção)</t>
+    <t xml:space="preserve">55. Município (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_infeccao</t>
@@ -2128,8 +1921,7 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <t xml:space="preserve">56. Distrito
-(provável de infecção)</t>
+    <t xml:space="preserve">56. Distrito (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_distrito_infeccão</t>
@@ -2205,16 +1997,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Quando a classificação final </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">for preenchida com
+      <t xml:space="preserve">Quando a classificação final for preenchida com
 2(descartado) os dados
 desse campo são
 automaticamente
@@ -2225,8 +2008,7 @@
     <t xml:space="preserve">CODISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">57. Bairro (provável de
-infecção)</t>
+    <t xml:space="preserve">57. Bairro (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_bairro_infeccao,
@@ -2326,9 +2108,7 @@
 NOBAIINF</t>
   </si>
   <si>
-    <t xml:space="preserve">58. Característica do Local
-Provável de Infecção
-Zona</t>
+    <t xml:space="preserve">58. Característica do Local Provável de Infecção Zona</t>
   </si>
   <si>
     <t xml:space="preserve">tp_area</t>
@@ -2380,16 +2160,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Quando a classificação final </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">for preenchida com
+      <t xml:space="preserve">Quando a classificação final for preenchida com
 2(descartado) os dados
 desse campo são
 automaticamente apagados</t>
@@ -2399,9 +2170,7 @@
     <t xml:space="preserve">ZONA</t>
   </si>
   <si>
-    <t xml:space="preserve">59. Característica do Local
-Provável de Infecção
-Ambiente</t>
+    <t xml:space="preserve">59. Característica do Local Provável de Infecção Ambiente</t>
   </si>
   <si>
     <t xml:space="preserve">tp_ambiente</t>
@@ -2475,8 +2244,7 @@
     <t xml:space="preserve">AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">60. Doença relacionada ao
-Trabalho</t>
+    <t xml:space="preserve">60. Doença relacionada ao Trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -2614,16 +2382,7 @@
       </rPr>
       <t xml:space="preserve">Não permitir preenchimento
 com a opção 2-óbito por
-febre maculosa se campo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">classificação final= 2
+febre maculosa se campo classificação final= 2
 (descartado)</t>
     </r>
   </si>
@@ -2725,7 +2484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2763,19 +2522,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2789,13 +2535,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3005,7 +2744,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.54296875" defaultRowHeight="78.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3301,24 +3040,24 @@
         <v>22</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>22</v>
@@ -3327,21 +3066,21 @@
         <v>23</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>22</v>
@@ -3350,21 +3089,21 @@
         <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>22</v>
@@ -3373,21 +3112,21 @@
         <v>23</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>22</v>
@@ -3396,21 +3135,21 @@
         <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>22</v>
@@ -3419,21 +3158,21 @@
         <v>23</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>22</v>
@@ -3442,21 +3181,21 @@
         <v>23</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>22</v>
@@ -3465,21 +3204,21 @@
         <v>23</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>22</v>
@@ -3488,21 +3227,21 @@
         <v>23</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>22</v>
@@ -3511,21 +3250,21 @@
         <v>23</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
@@ -3534,21 +3273,21 @@
         <v>23</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -3557,21 +3296,21 @@
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>22</v>
@@ -3580,42 +3319,42 @@
         <v>23</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>22</v>
@@ -3624,21 +3363,21 @@
         <v>23</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>22</v>
@@ -3647,21 +3386,21 @@
         <v>23</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>22</v>
@@ -3670,21 +3409,21 @@
         <v>23</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
@@ -3693,21 +3432,21 @@
         <v>23</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>22</v>
@@ -3716,21 +3455,21 @@
         <v>23</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>22</v>
@@ -3739,65 +3478,65 @@
         <v>23</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C33" s="8" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
@@ -3806,815 +3545,815 @@
         <v>23</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="G36" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="G41" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G46" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="D53" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="E53" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="G53" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="G60" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="E61" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="F61" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="G61" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="E62" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="G62" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="E64" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="F64" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="G64" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="G65" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="G66" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="G68" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="G69" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G71" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
